--- a/data/pca/factorExposure/factorExposure_2016-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008223249195995583</v>
+        <v>0.01333731286185613</v>
       </c>
       <c r="C2">
-        <v>0.05432502517566944</v>
+        <v>0.04358336076412226</v>
       </c>
       <c r="D2">
-        <v>-0.03512975903101114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06547883738485075</v>
+      </c>
+      <c r="E2">
+        <v>0.05117654994600888</v>
+      </c>
+      <c r="F2">
+        <v>0.08143184859449906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.06009370481038639</v>
+        <v>0.03069529654932446</v>
       </c>
       <c r="C3">
-        <v>0.08993707382785568</v>
+        <v>0.08120197928229184</v>
       </c>
       <c r="D3">
-        <v>-0.08081832286115345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09225855603689966</v>
+      </c>
+      <c r="E3">
+        <v>0.05952750006127228</v>
+      </c>
+      <c r="F3">
+        <v>0.01327836489859955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06259391531137178</v>
+        <v>0.05757344376558958</v>
       </c>
       <c r="C4">
-        <v>0.06039030658924515</v>
+        <v>0.06610974586340213</v>
       </c>
       <c r="D4">
-        <v>-0.02494631142259233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05944200185191952</v>
+      </c>
+      <c r="E4">
+        <v>0.04916474332846402</v>
+      </c>
+      <c r="F4">
+        <v>0.08869442850153844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03847398686991618</v>
+        <v>0.03516428348490062</v>
       </c>
       <c r="C6">
-        <v>0.03305151815290593</v>
+        <v>0.03171330402201415</v>
       </c>
       <c r="D6">
-        <v>-0.03055277444243214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06858676349427981</v>
+      </c>
+      <c r="E6">
+        <v>0.05723807913893627</v>
+      </c>
+      <c r="F6">
+        <v>0.07114308652073902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01973625061924569</v>
+        <v>0.01921972452023723</v>
       </c>
       <c r="C7">
-        <v>0.04022292851022168</v>
+        <v>0.0380644362120975</v>
       </c>
       <c r="D7">
-        <v>0.004929272733708031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03748970312508942</v>
+      </c>
+      <c r="E7">
+        <v>0.03092471939577897</v>
+      </c>
+      <c r="F7">
+        <v>0.1081336328402774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001851693463809117</v>
+        <v>0.003530113777976397</v>
       </c>
       <c r="C8">
-        <v>0.02395480211634488</v>
+        <v>0.02808060909346492</v>
       </c>
       <c r="D8">
-        <v>-0.03338767265165516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03618730702595738</v>
+      </c>
+      <c r="E8">
+        <v>0.04093658062247049</v>
+      </c>
+      <c r="F8">
+        <v>0.05044340157767314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03340012000248706</v>
+        <v>0.03629401206214006</v>
       </c>
       <c r="C9">
-        <v>0.04458233803568153</v>
+        <v>0.05259315715298995</v>
       </c>
       <c r="D9">
-        <v>-0.01390699796670565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0449728315248283</v>
+      </c>
+      <c r="E9">
+        <v>0.04200021631187105</v>
+      </c>
+      <c r="F9">
+        <v>0.09213721527796181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06944817957416033</v>
+        <v>0.09954482139489207</v>
       </c>
       <c r="C10">
-        <v>-0.1939883075841827</v>
+        <v>-0.1939655822357722</v>
       </c>
       <c r="D10">
-        <v>-0.004366916791627251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0006393698502751398</v>
+      </c>
+      <c r="E10">
+        <v>0.04663844488905108</v>
+      </c>
+      <c r="F10">
+        <v>0.04053283882190848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03857899042140549</v>
+        <v>0.03612652330230935</v>
       </c>
       <c r="C11">
-        <v>0.05532725171374962</v>
+        <v>0.05150852546753083</v>
       </c>
       <c r="D11">
-        <v>-0.007768740181402107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03428892628787017</v>
+      </c>
+      <c r="E11">
+        <v>0.005009649594768224</v>
+      </c>
+      <c r="F11">
+        <v>0.0665598406379916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03512110676797361</v>
+        <v>0.03683139649751361</v>
       </c>
       <c r="C12">
-        <v>0.04664215187517008</v>
+        <v>0.04760601748623787</v>
       </c>
       <c r="D12">
-        <v>-0.00214532608568394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02567992597578606</v>
+      </c>
+      <c r="E12">
+        <v>0.01411380639114139</v>
+      </c>
+      <c r="F12">
+        <v>0.06955733752977519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01318517918707892</v>
+        <v>0.0122387900290568</v>
       </c>
       <c r="C13">
-        <v>0.04312467192353003</v>
+        <v>0.0418428473877162</v>
       </c>
       <c r="D13">
-        <v>-0.0178119458328814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.062623336600866</v>
+      </c>
+      <c r="E13">
+        <v>0.06122159081403067</v>
+      </c>
+      <c r="F13">
+        <v>0.1135867307647946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.006519119881613677</v>
+        <v>0.005039954054883456</v>
       </c>
       <c r="C14">
-        <v>0.03372530861429841</v>
+        <v>0.03144720354253049</v>
       </c>
       <c r="D14">
-        <v>0.01576982446765148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02719016818686176</v>
+      </c>
+      <c r="E14">
+        <v>0.02637062713253759</v>
+      </c>
+      <c r="F14">
+        <v>0.09745466490157037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001156062821925167</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003171196369893092</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004352380020485356</v>
+      </c>
+      <c r="E15">
+        <v>-0.0001295511880065071</v>
+      </c>
+      <c r="F15">
+        <v>0.002973343491731997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03517892599785567</v>
+        <v>0.03357142659609944</v>
       </c>
       <c r="C16">
-        <v>0.04280004169217999</v>
+        <v>0.04569564257805196</v>
       </c>
       <c r="D16">
-        <v>-0.007147518114924241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.028643227709748</v>
+      </c>
+      <c r="E16">
+        <v>0.01940428136601029</v>
+      </c>
+      <c r="F16">
+        <v>0.07045442602390081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02271852870899731</v>
+        <v>0.01632785217659153</v>
       </c>
       <c r="C19">
-        <v>0.06121702765260723</v>
+        <v>0.05047724720545238</v>
       </c>
       <c r="D19">
-        <v>-0.07119700978325499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09651878010438046</v>
+      </c>
+      <c r="E19">
+        <v>0.07917236943720851</v>
+      </c>
+      <c r="F19">
+        <v>0.09170262436496031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01375945223684988</v>
+        <v>0.01331116637529232</v>
       </c>
       <c r="C20">
-        <v>0.04357372521372126</v>
+        <v>0.04094875441440533</v>
       </c>
       <c r="D20">
-        <v>-0.01801319762684004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04096905671454746</v>
+      </c>
+      <c r="E20">
+        <v>0.05544207181581718</v>
+      </c>
+      <c r="F20">
+        <v>0.08935557356506507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.009578171306668309</v>
+        <v>0.008399583201720452</v>
       </c>
       <c r="C21">
-        <v>0.04791451682421045</v>
+        <v>0.04455615888544752</v>
       </c>
       <c r="D21">
-        <v>-0.03553234356497516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06985407666844232</v>
+      </c>
+      <c r="E21">
+        <v>0.0733185581245397</v>
+      </c>
+      <c r="F21">
+        <v>0.1344158033504228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001708957893359783</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02280207300553407</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0351990831557971</v>
+      </c>
+      <c r="E22">
+        <v>0.01840829450701342</v>
+      </c>
+      <c r="F22">
+        <v>0.02208450932679132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001775962204836342</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02292616015415058</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03489167119710496</v>
+      </c>
+      <c r="E23">
+        <v>0.01869688462920513</v>
+      </c>
+      <c r="F23">
+        <v>0.02196353305740769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03066008235781933</v>
+        <v>0.03320349384962393</v>
       </c>
       <c r="C24">
-        <v>0.04861765248327114</v>
+        <v>0.0534420079839578</v>
       </c>
       <c r="D24">
-        <v>-0.003991104464863999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02726199820273173</v>
+      </c>
+      <c r="E24">
+        <v>0.01654056707271185</v>
+      </c>
+      <c r="F24">
+        <v>0.07912769021685125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04399916358151579</v>
+        <v>0.04303629671623307</v>
       </c>
       <c r="C25">
-        <v>0.05894444087028573</v>
+        <v>0.05740401241015602</v>
       </c>
       <c r="D25">
-        <v>0.006843260466015593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02485848962042691</v>
+      </c>
+      <c r="E25">
+        <v>0.01091527923480306</v>
+      </c>
+      <c r="F25">
+        <v>0.08059078301005909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01276775244342837</v>
+        <v>0.01375729716806354</v>
       </c>
       <c r="C26">
-        <v>0.01530798609751283</v>
+        <v>0.01651024007887783</v>
       </c>
       <c r="D26">
-        <v>-0.002141498060159076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02682328280803736</v>
+      </c>
+      <c r="E26">
+        <v>0.02863616526073493</v>
+      </c>
+      <c r="F26">
+        <v>0.07436360993857272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08351697363666709</v>
+        <v>0.1343937778311236</v>
       </c>
       <c r="C28">
-        <v>-0.2268182482282324</v>
+        <v>-0.2436576661583998</v>
       </c>
       <c r="D28">
-        <v>-0.0004068126292393509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01557829487943722</v>
+      </c>
+      <c r="E28">
+        <v>0.04758204690137092</v>
+      </c>
+      <c r="F28">
+        <v>0.05675877693545432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008191322931519907</v>
+        <v>0.006053902474308951</v>
       </c>
       <c r="C29">
-        <v>0.02645939540220407</v>
+        <v>0.027024111792371</v>
       </c>
       <c r="D29">
-        <v>0.01697258200146265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02193456711707739</v>
+      </c>
+      <c r="E29">
+        <v>0.02824250757060877</v>
+      </c>
+      <c r="F29">
+        <v>0.08992389718664971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05198326062583356</v>
+        <v>0.04190372029646779</v>
       </c>
       <c r="C30">
-        <v>0.05764156908369706</v>
+        <v>0.06468269597643189</v>
       </c>
       <c r="D30">
-        <v>-0.05429005368390027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1083080176039637</v>
+      </c>
+      <c r="E30">
+        <v>0.03967402553375708</v>
+      </c>
+      <c r="F30">
+        <v>0.104937628124794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05004855146080615</v>
+        <v>0.05467397116275881</v>
       </c>
       <c r="C31">
-        <v>0.03142910521351442</v>
+        <v>0.05410542681568317</v>
       </c>
       <c r="D31">
-        <v>0.01655403206109568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008962173657763653</v>
+      </c>
+      <c r="E31">
+        <v>0.04874895989410558</v>
+      </c>
+      <c r="F31">
+        <v>0.08272735602554243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008442160242073365</v>
+        <v>0.004450481992689366</v>
       </c>
       <c r="C32">
-        <v>0.04396305974363423</v>
+        <v>0.0335481989804637</v>
       </c>
       <c r="D32">
-        <v>-0.02710677579178901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05030729250030267</v>
+      </c>
+      <c r="E32">
+        <v>0.02296168069146944</v>
+      </c>
+      <c r="F32">
+        <v>0.07404350418617758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02730231245254362</v>
+        <v>0.02424378354990597</v>
       </c>
       <c r="C33">
-        <v>0.05944185594582477</v>
+        <v>0.05480040257600113</v>
       </c>
       <c r="D33">
-        <v>-0.03417068636270831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08111015860423523</v>
+      </c>
+      <c r="E33">
+        <v>0.04932799859255114</v>
+      </c>
+      <c r="F33">
+        <v>0.129729379531459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04477801407583674</v>
+        <v>0.04087661182076485</v>
       </c>
       <c r="C34">
-        <v>0.06076210940831969</v>
+        <v>0.06398392986442711</v>
       </c>
       <c r="D34">
-        <v>0.002407897442526139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03446131713776116</v>
+      </c>
+      <c r="E34">
+        <v>-0.007953340663273835</v>
+      </c>
+      <c r="F34">
+        <v>0.07709240879777597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008438167527679777</v>
+        <v>0.01290215580924119</v>
       </c>
       <c r="C36">
-        <v>0.01490339857903897</v>
+        <v>0.01249883750823373</v>
       </c>
       <c r="D36">
-        <v>-0.0009517440239046191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02820141914533851</v>
+      </c>
+      <c r="E36">
+        <v>0.03384446861543716</v>
+      </c>
+      <c r="F36">
+        <v>0.08216479423588463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0275452651123714</v>
+        <v>0.02426087265900038</v>
       </c>
       <c r="C38">
-        <v>0.02757794158278747</v>
+        <v>0.02465199593781891</v>
       </c>
       <c r="D38">
-        <v>0.001097923668210261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02621887261713997</v>
+      </c>
+      <c r="E38">
+        <v>0.03297428412295637</v>
+      </c>
+      <c r="F38">
+        <v>0.06936762641680613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.0414948798480856</v>
+        <v>0.03922335475380608</v>
       </c>
       <c r="C39">
-        <v>0.07096972068910221</v>
+        <v>0.06798603078461302</v>
       </c>
       <c r="D39">
-        <v>-0.02065000008385392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05302717176777422</v>
+      </c>
+      <c r="E39">
+        <v>0.01867805518493713</v>
+      </c>
+      <c r="F39">
+        <v>0.09156268548438476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01560651247403867</v>
+        <v>0.0157257846254052</v>
       </c>
       <c r="C40">
-        <v>0.03560404486519519</v>
+        <v>0.03989725059622903</v>
       </c>
       <c r="D40">
-        <v>-0.03234262675036589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03918178662820199</v>
+      </c>
+      <c r="E40">
+        <v>0.06926843934790133</v>
+      </c>
+      <c r="F40">
+        <v>0.08825267659458062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.007337352136742761</v>
+        <v>0.01743480879607363</v>
       </c>
       <c r="C41">
-        <v>0.008075995695156534</v>
+        <v>0.006648779869496225</v>
       </c>
       <c r="D41">
-        <v>0.002011376725088105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01667028579321442</v>
+      </c>
+      <c r="E41">
+        <v>0.03782760298987072</v>
+      </c>
+      <c r="F41">
+        <v>0.07065483890107048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.0007976472845919333</v>
+        <v>0.0005759076796981075</v>
       </c>
       <c r="C42">
-        <v>0.006557864323921953</v>
+        <v>0.003516722221489025</v>
       </c>
       <c r="D42">
-        <v>-0.00645587539543982</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0005318055062720074</v>
+      </c>
+      <c r="E42">
+        <v>0.006168750630941037</v>
+      </c>
+      <c r="F42">
+        <v>-0.006127859981981836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03156899634404597</v>
+        <v>0.02860452454699635</v>
       </c>
       <c r="C43">
-        <v>0.02407600775013573</v>
+        <v>0.0217230659425104</v>
       </c>
       <c r="D43">
-        <v>-0.01230822334826025</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04016892515477109</v>
+      </c>
+      <c r="E43">
+        <v>0.04338951804733945</v>
+      </c>
+      <c r="F43">
+        <v>0.08508353949755536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01834193409711177</v>
+        <v>0.01384422730943355</v>
       </c>
       <c r="C44">
-        <v>0.05693892488666128</v>
+        <v>0.05279538567772058</v>
       </c>
       <c r="D44">
-        <v>-0.01428102759254882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04010982487431653</v>
+      </c>
+      <c r="E44">
+        <v>0.0556046774640179</v>
+      </c>
+      <c r="F44">
+        <v>0.0902215671766218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.001396919141773232</v>
+        <v>0.007242049541083951</v>
       </c>
       <c r="C46">
-        <v>0.02409456954370193</v>
+        <v>0.02555636564115984</v>
       </c>
       <c r="D46">
-        <v>0.02112952777962828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01331883784911502</v>
+      </c>
+      <c r="E46">
+        <v>0.03388415815067539</v>
+      </c>
+      <c r="F46">
+        <v>0.1037344029122164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.08101100227299518</v>
+        <v>0.0868211540616057</v>
       </c>
       <c r="C47">
-        <v>0.0691690156919022</v>
+        <v>0.07968465731282801</v>
       </c>
       <c r="D47">
-        <v>0.0131735374082877</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01620892694361264</v>
+      </c>
+      <c r="E47">
+        <v>0.05479220684577756</v>
+      </c>
+      <c r="F47">
+        <v>0.08008226489354947</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01685651060565404</v>
+        <v>0.01547165072640335</v>
       </c>
       <c r="C48">
-        <v>0.01209902317508527</v>
+        <v>0.01800187962637757</v>
       </c>
       <c r="D48">
-        <v>0.009257894681235132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01849635590027739</v>
+      </c>
+      <c r="E48">
+        <v>0.04474961253187526</v>
+      </c>
+      <c r="F48">
+        <v>0.09645278504998482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0852243622928968</v>
+        <v>0.07115330071808683</v>
       </c>
       <c r="C50">
-        <v>0.06747777067198407</v>
+        <v>0.07105960576191712</v>
       </c>
       <c r="D50">
-        <v>0.02558214795954481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005488846775274701</v>
+      </c>
+      <c r="E50">
+        <v>0.05130697958861009</v>
+      </c>
+      <c r="F50">
+        <v>0.07423726906310708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01427873690542998</v>
+        <v>0.0100923106992592</v>
       </c>
       <c r="C51">
-        <v>0.05170506660039251</v>
+        <v>0.03458372648205912</v>
       </c>
       <c r="D51">
-        <v>-0.01149036412793451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04833383093319242</v>
+      </c>
+      <c r="E51">
+        <v>0.02057450077352277</v>
+      </c>
+      <c r="F51">
+        <v>0.08430449466060258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08330140201437478</v>
+        <v>0.09304533238786515</v>
       </c>
       <c r="C53">
-        <v>0.06978694135062749</v>
+        <v>0.08674392598513966</v>
       </c>
       <c r="D53">
-        <v>0.03049266794621879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03842024624326938</v>
+      </c>
+      <c r="E53">
+        <v>0.05240503944336802</v>
+      </c>
+      <c r="F53">
+        <v>0.09047926399251008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03241754162661441</v>
+        <v>0.02789133122127063</v>
       </c>
       <c r="C54">
-        <v>0.02170557006525044</v>
+        <v>0.02687628815362717</v>
       </c>
       <c r="D54">
-        <v>-0.0002176582869424997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03204084592409008</v>
+      </c>
+      <c r="E54">
+        <v>0.04053738474177989</v>
+      </c>
+      <c r="F54">
+        <v>0.09651888854346627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07387631201821243</v>
+        <v>0.0841071907427579</v>
       </c>
       <c r="C55">
-        <v>0.06137854210030575</v>
+        <v>0.07110312756726365</v>
       </c>
       <c r="D55">
-        <v>0.03465771201362918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04559531287968442</v>
+      </c>
+      <c r="E55">
+        <v>0.04317377876029579</v>
+      </c>
+      <c r="F55">
+        <v>0.06576975954679799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1506735190077238</v>
+        <v>0.1454724987755729</v>
       </c>
       <c r="C56">
-        <v>0.08924834273401523</v>
+        <v>0.1053964781530471</v>
       </c>
       <c r="D56">
-        <v>0.03986120008845762</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04861473063052527</v>
+      </c>
+      <c r="E56">
+        <v>0.04720077083470837</v>
+      </c>
+      <c r="F56">
+        <v>0.05105937442899467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0008445255808149466</v>
+        <v>0.000134720524954804</v>
       </c>
       <c r="C57">
-        <v>0.003405582347217627</v>
+        <v>0.001887336922336779</v>
       </c>
       <c r="D57">
-        <v>-0.01903223085224105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01619481584568499</v>
+      </c>
+      <c r="E57">
+        <v>0.007391049258488749</v>
+      </c>
+      <c r="F57">
+        <v>0.01094799111867839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0719243453249724</v>
+        <v>0.02803797838515541</v>
       </c>
       <c r="C58">
-        <v>0.01991334049837411</v>
+        <v>0.04046741070898972</v>
       </c>
       <c r="D58">
-        <v>-0.9097283049000245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4886481743973711</v>
+      </c>
+      <c r="E58">
+        <v>0.6916733962817408</v>
+      </c>
+      <c r="F58">
+        <v>-0.4522380155602606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1332412879027037</v>
+        <v>0.1461824090303938</v>
       </c>
       <c r="C59">
-        <v>-0.2048690213034535</v>
+        <v>-0.1868088951206894</v>
       </c>
       <c r="D59">
-        <v>-0.01664778159431849</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03163194242617695</v>
+      </c>
+      <c r="E59">
+        <v>0.02573684275613502</v>
+      </c>
+      <c r="F59">
+        <v>0.0222096266061094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3127851864557892</v>
+        <v>0.283739998649447</v>
       </c>
       <c r="C60">
-        <v>0.09297032708408395</v>
+        <v>0.09759479243589228</v>
       </c>
       <c r="D60">
-        <v>-0.02773675602969105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2033383188731329</v>
+      </c>
+      <c r="E60">
+        <v>-0.2745195507333245</v>
+      </c>
+      <c r="F60">
+        <v>-0.1163937783630477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.04063202931886686</v>
+        <v>0.04039092916402857</v>
       </c>
       <c r="C61">
-        <v>0.06408901090811606</v>
+        <v>0.06208178585025866</v>
       </c>
       <c r="D61">
-        <v>-0.01115473593873308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04637767270925459</v>
+      </c>
+      <c r="E61">
+        <v>0.02172573293414013</v>
+      </c>
+      <c r="F61">
+        <v>0.08249879987072702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01525918610070822</v>
+        <v>0.01510436816129466</v>
       </c>
       <c r="C63">
-        <v>0.03525166686816668</v>
+        <v>0.03248978030008451</v>
       </c>
       <c r="D63">
-        <v>0.00272543030671162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02382008607340884</v>
+      </c>
+      <c r="E63">
+        <v>0.03706765984642767</v>
+      </c>
+      <c r="F63">
+        <v>0.07751941091020739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05295552757666687</v>
+        <v>0.05535085588038594</v>
       </c>
       <c r="C64">
-        <v>0.03763118754328564</v>
+        <v>0.05393465849022756</v>
       </c>
       <c r="D64">
-        <v>0.01016526459801753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006398275418117352</v>
+      </c>
+      <c r="E64">
+        <v>0.02000954651797714</v>
+      </c>
+      <c r="F64">
+        <v>0.08560054637658514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0984824059338122</v>
+        <v>0.06921354244561614</v>
       </c>
       <c r="C65">
-        <v>0.02743593173198728</v>
+        <v>0.0333797381817426</v>
       </c>
       <c r="D65">
-        <v>-0.03855783027853544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08754125185728603</v>
+      </c>
+      <c r="E65">
+        <v>0.03031782208146373</v>
+      </c>
+      <c r="F65">
+        <v>0.01921526398743897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.0626904816697041</v>
+        <v>0.05162604362281895</v>
       </c>
       <c r="C66">
-        <v>0.1020480261737408</v>
+        <v>0.09068779556831481</v>
       </c>
       <c r="D66">
-        <v>-0.03282630444989443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08052658272295524</v>
+      </c>
+      <c r="E66">
+        <v>0.02081098829150219</v>
+      </c>
+      <c r="F66">
+        <v>0.09402247568186153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.04974970587514734</v>
+        <v>0.04626925170823126</v>
       </c>
       <c r="C67">
-        <v>0.03274292767601616</v>
+        <v>0.03066656517979945</v>
       </c>
       <c r="D67">
-        <v>0.006788969624895109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01196154098624956</v>
+      </c>
+      <c r="E67">
+        <v>0.01595962464308957</v>
+      </c>
+      <c r="F67">
+        <v>0.05425253994574562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1118730192350439</v>
+        <v>0.1512139176326776</v>
       </c>
       <c r="C68">
-        <v>-0.2901940831286182</v>
+        <v>-0.2522560160193318</v>
       </c>
       <c r="D68">
-        <v>0.002965481035210691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01776051062059758</v>
+      </c>
+      <c r="E68">
+        <v>0.04243562668935496</v>
+      </c>
+      <c r="F68">
+        <v>0.01908411436865984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.084834451178691</v>
+        <v>0.08643629854201722</v>
       </c>
       <c r="C69">
-        <v>0.06748642370361412</v>
+        <v>0.08660409862976061</v>
       </c>
       <c r="D69">
-        <v>0.03793553336449955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01168418056084307</v>
+      </c>
+      <c r="E69">
+        <v>0.03106200408768616</v>
+      </c>
+      <c r="F69">
+        <v>0.09650202846885493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1135875218705576</v>
+        <v>0.1433553051958842</v>
       </c>
       <c r="C71">
-        <v>-0.2519563811804398</v>
+        <v>-0.2333788701159462</v>
       </c>
       <c r="D71">
-        <v>-0.02392809749104443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01604390926398298</v>
+      </c>
+      <c r="E71">
+        <v>0.06169036107169442</v>
+      </c>
+      <c r="F71">
+        <v>0.05791206640527487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0857805102986621</v>
+        <v>0.09607695973648488</v>
       </c>
       <c r="C72">
-        <v>0.04868568165400442</v>
+        <v>0.05705614947555164</v>
       </c>
       <c r="D72">
-        <v>0.009276447455881302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02082800588949488</v>
+      </c>
+      <c r="E72">
+        <v>0.008436700250062717</v>
+      </c>
+      <c r="F72">
+        <v>0.08145983402397776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4473617521789012</v>
+        <v>0.3475919165103693</v>
       </c>
       <c r="C73">
-        <v>0.06373475484622264</v>
+        <v>0.07687280136262957</v>
       </c>
       <c r="D73">
-        <v>-0.1337440492276064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4322923923296253</v>
+      </c>
+      <c r="E73">
+        <v>-0.4821180869994968</v>
+      </c>
+      <c r="F73">
+        <v>-0.2929892066666898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1130541992251316</v>
+        <v>0.1106663235091287</v>
       </c>
       <c r="C74">
-        <v>0.1046538510914743</v>
+        <v>0.1001850580046945</v>
       </c>
       <c r="D74">
-        <v>0.01342431717280855</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02894710672536825</v>
+      </c>
+      <c r="E74">
+        <v>0.06117767051665284</v>
+      </c>
+      <c r="F74">
+        <v>0.05668533647875525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2516820628594094</v>
+        <v>0.2563856234730078</v>
       </c>
       <c r="C75">
-        <v>0.1093126897603973</v>
+        <v>0.1361848756981581</v>
       </c>
       <c r="D75">
-        <v>0.06080680637990928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1280302519121803</v>
+      </c>
+      <c r="E75">
+        <v>0.07449401143330812</v>
+      </c>
+      <c r="F75">
+        <v>0.01641694784304545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1132549566774401</v>
+        <v>0.1281303486654419</v>
       </c>
       <c r="C76">
-        <v>0.08757562820278687</v>
+        <v>0.1021899826396767</v>
       </c>
       <c r="D76">
-        <v>0.03262403276074202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05755180333946667</v>
+      </c>
+      <c r="E76">
+        <v>0.06637848965133787</v>
+      </c>
+      <c r="F76">
+        <v>0.07156377761398354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07723069041066181</v>
+        <v>0.061959237745483</v>
       </c>
       <c r="C77">
-        <v>0.05662126198965427</v>
+        <v>0.06919540801245187</v>
       </c>
       <c r="D77">
-        <v>-0.05210533596921617</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06525399041145279</v>
+      </c>
+      <c r="E77">
+        <v>0.06730074977196131</v>
+      </c>
+      <c r="F77">
+        <v>0.1177819994137848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04622105743270571</v>
+        <v>0.04384704510676606</v>
       </c>
       <c r="C78">
-        <v>0.04348779982987871</v>
+        <v>0.05495859329049641</v>
       </c>
       <c r="D78">
-        <v>-0.01785779567117418</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07148409412646496</v>
+      </c>
+      <c r="E78">
+        <v>0.02133691759673776</v>
+      </c>
+      <c r="F78">
+        <v>0.1041310579591884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02488330833337925</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0380544663670391</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05936949628873946</v>
+      </c>
+      <c r="E79">
+        <v>0.05228285646247095</v>
+      </c>
+      <c r="F79">
+        <v>0.04256600536915312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0469047772733442</v>
+        <v>0.03445483074582951</v>
       </c>
       <c r="C80">
-        <v>0.05747870690343743</v>
+        <v>0.05538210849899432</v>
       </c>
       <c r="D80">
-        <v>-0.02908679735276117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04710256246903585</v>
+      </c>
+      <c r="E80">
+        <v>0.009450743008559949</v>
+      </c>
+      <c r="F80">
+        <v>0.03646828107801049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1425607117142715</v>
+        <v>0.1401726540512575</v>
       </c>
       <c r="C81">
-        <v>0.06909000607907322</v>
+        <v>0.09671188358537582</v>
       </c>
       <c r="D81">
-        <v>0.03363257765384754</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09517936376286169</v>
+      </c>
+      <c r="E81">
+        <v>0.0818604155207743</v>
+      </c>
+      <c r="F81">
+        <v>0.02164141930820297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1399833786306865</v>
+        <v>0.1991331661610741</v>
       </c>
       <c r="C82">
-        <v>0.05472150069242047</v>
+        <v>0.137016900459415</v>
       </c>
       <c r="D82">
-        <v>0.1216955955844202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2267562455316657</v>
+      </c>
+      <c r="E82">
+        <v>0.0205659311068704</v>
+      </c>
+      <c r="F82">
+        <v>0.08562115289474226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02917635249192932</v>
+        <v>0.0274698728073981</v>
       </c>
       <c r="C83">
-        <v>0.02281251524982543</v>
+        <v>0.04024874938150878</v>
       </c>
       <c r="D83">
-        <v>-0.02323946864835427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0351559998550195</v>
+      </c>
+      <c r="E83">
+        <v>0.009086740893843478</v>
+      </c>
+      <c r="F83">
+        <v>0.04987195061508937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2259403668074764</v>
+        <v>0.2042953961242025</v>
       </c>
       <c r="C85">
-        <v>0.1015262332279689</v>
+        <v>0.1216471568044988</v>
       </c>
       <c r="D85">
-        <v>0.09941722295878479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1025598310673901</v>
+      </c>
+      <c r="E85">
+        <v>0.00466587585753387</v>
+      </c>
+      <c r="F85">
+        <v>-0.01733954265101594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.009181535001195985</v>
+        <v>0.01208376527656498</v>
       </c>
       <c r="C86">
-        <v>0.02953360215656355</v>
+        <v>0.02992620886900243</v>
       </c>
       <c r="D86">
-        <v>-0.03521817780923745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07117980725260789</v>
+      </c>
+      <c r="E86">
+        <v>0.04178931572476884</v>
+      </c>
+      <c r="F86">
+        <v>0.1369432384137612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01797544916662885</v>
+        <v>0.02108334703424881</v>
       </c>
       <c r="C87">
-        <v>0.01683907455871689</v>
+        <v>0.02157473232208129</v>
       </c>
       <c r="D87">
-        <v>-0.09203131401134285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09301081674665428</v>
+      </c>
+      <c r="E87">
+        <v>0.08697576458681824</v>
+      </c>
+      <c r="F87">
+        <v>0.09493241216752668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1054940389863995</v>
+        <v>0.0910075022838851</v>
       </c>
       <c r="C88">
-        <v>0.06674706150931095</v>
+        <v>0.06323731527037216</v>
       </c>
       <c r="D88">
-        <v>0.02122382002656096</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01137330963802573</v>
+      </c>
+      <c r="E88">
+        <v>0.03425353767732797</v>
+      </c>
+      <c r="F88">
+        <v>0.0730946583207458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1698337841349362</v>
+        <v>0.2232253496709982</v>
       </c>
       <c r="C89">
-        <v>-0.3812154108333287</v>
+        <v>-0.3800205010972997</v>
       </c>
       <c r="D89">
-        <v>0.02581168349187545</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01414834603887416</v>
+      </c>
+      <c r="E89">
+        <v>0.03810050203389994</v>
+      </c>
+      <c r="F89">
+        <v>0.09595011488658946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1681559809372707</v>
+        <v>0.2018824036952415</v>
       </c>
       <c r="C90">
-        <v>-0.3509028610540657</v>
+        <v>-0.3153607482141807</v>
       </c>
       <c r="D90">
-        <v>0.01456904140679221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01261738884114759</v>
+      </c>
+      <c r="E90">
+        <v>0.06735513281746378</v>
+      </c>
+      <c r="F90">
+        <v>0.04672843607882668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1930906258414433</v>
+        <v>0.1865407750528915</v>
       </c>
       <c r="C91">
-        <v>0.1074422573061562</v>
+        <v>0.1397644083011315</v>
       </c>
       <c r="D91">
-        <v>0.06071693085370727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1052525814103877</v>
+      </c>
+      <c r="E91">
+        <v>0.06505693187112564</v>
+      </c>
+      <c r="F91">
+        <v>0.03732475762326785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.164252528572424</v>
+        <v>0.1815991360820273</v>
       </c>
       <c r="C92">
-        <v>-0.2952233031980602</v>
+        <v>-0.2809204300685044</v>
       </c>
       <c r="D92">
-        <v>0.01410242013063546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.001779742732019806</v>
+      </c>
+      <c r="E92">
+        <v>0.06882863861288868</v>
+      </c>
+      <c r="F92">
+        <v>0.08199050515113676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1942586697262581</v>
+        <v>0.22571701613693</v>
       </c>
       <c r="C93">
-        <v>-0.3408885739873223</v>
+        <v>-0.3189366954001425</v>
       </c>
       <c r="D93">
-        <v>0.008605196203639923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0004174271221181723</v>
+      </c>
+      <c r="E93">
+        <v>0.05186301108169619</v>
+      </c>
+      <c r="F93">
+        <v>0.044456959059747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.31617401083266</v>
+        <v>0.3422634069266781</v>
       </c>
       <c r="C94">
-        <v>0.153743829503551</v>
+        <v>0.1876673744763063</v>
       </c>
       <c r="D94">
-        <v>0.2391167704926067</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4747905062022252</v>
+      </c>
+      <c r="E94">
+        <v>0.1516356426884268</v>
+      </c>
+      <c r="F94">
+        <v>-0.4445762947612575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09594505237764496</v>
+        <v>0.08494570565638181</v>
       </c>
       <c r="C95">
-        <v>0.08210178477712281</v>
+        <v>0.06765185458812448</v>
       </c>
       <c r="D95">
-        <v>-0.06738896695539684</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1582236544465605</v>
+      </c>
+      <c r="E95">
+        <v>-0.1249249281656191</v>
+      </c>
+      <c r="F95">
+        <v>0.1704042464486588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1969748858968429</v>
+        <v>0.1885932138822799</v>
       </c>
       <c r="C98">
-        <v>0.01685577421020477</v>
+        <v>0.040941129973805</v>
       </c>
       <c r="D98">
-        <v>-0.06511640512160054</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1762917722121613</v>
+      </c>
+      <c r="E98">
+        <v>-0.1567981154799817</v>
+      </c>
+      <c r="F98">
+        <v>-0.04427976440954403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008096281645546027</v>
+        <v>0.006101778907165231</v>
       </c>
       <c r="C101">
-        <v>0.02646143601545334</v>
+        <v>0.02677107660618087</v>
       </c>
       <c r="D101">
-        <v>0.01718820081950598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02145329695221207</v>
+      </c>
+      <c r="E101">
+        <v>0.02896117682098552</v>
+      </c>
+      <c r="F101">
+        <v>0.08973560382429627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1242434774274949</v>
+        <v>0.1241721526561881</v>
       </c>
       <c r="C102">
-        <v>0.07121807601133939</v>
+        <v>0.09975073904893529</v>
       </c>
       <c r="D102">
-        <v>0.03351317617311524</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05092674875572838</v>
+      </c>
+      <c r="E102">
+        <v>-0.006789028705209419</v>
+      </c>
+      <c r="F102">
+        <v>0.04025613263385121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
